--- a/Peaks-dataset-article/redes-ensemble/Teste05/results.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste05/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,90 +451,145 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>model_22_9_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>model_22_9_7</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_11</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>model_22_9_8</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_9</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_3</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_8_8</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>model_22_8_7</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_6</t>
+          <t>model_22_9_12</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_5</t>
+          <t>model_22_9_21</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_4</t>
+          <t>model_22_9_15</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_3</t>
+          <t>model_22_9_14</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>model_22_9_17</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_16</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_24</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_23</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>model_22_9_13</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_7</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>media</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>desvio padrao</t>
         </is>
@@ -551,58 +606,91 @@
         <v>0.04683538599288443</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7854564189910889</v>
+        <v>-1.596272587776184</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7944192886352539</v>
+        <v>-1.596272826194763</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8024849891662598</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7754950523376465</v>
+        <v>-1.596273064613342</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.8097434043884277</v>
+        <v>-1.596273064613342</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7644279003143311</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.7521268129348755</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7384583950042725</v>
+        <v>-1.596272826194763</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7232685089111328</v>
+        <v>-1.596274018287659</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.7063889503479004</v>
+        <v>-1.596273064613342</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.667715311050415</v>
+        <v>-1.59627377986908</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6674599647521973</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.6670697927474976</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.666502833366394</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.6657059192657471</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.6646140813827515</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.6826177786825474</v>
+        <v>-1.596273303031921</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1956968460543754</v>
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.596273303031921</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.9071680307388306</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.8789575099945068</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.487361483515914</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.352613744356483</v>
       </c>
     </row>
     <row r="3">
@@ -616,58 +704,91 @@
         <v>-1.816919697522331</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.945871114730835</v>
+        <v>-3.13371205329895</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.945011377334595</v>
+        <v>-3.133710861206055</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.944231271743774</v>
+        <v>-3.133709907531738</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.946824789047241</v>
+        <v>-3.133709192276001</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.943528890609741</v>
+        <v>-3.133708715438843</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.947880029678345</v>
+        <v>-3.133707284927368</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.949045896530151</v>
+        <v>-3.13370680809021</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.950332403182983</v>
+        <v>-3.133706331253052</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.951751470565796</v>
+        <v>-3.133704900741577</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.953316926956177</v>
+        <v>-3.133704900741577</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.899572610855103</v>
+        <v>-3.133704423904419</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.891547918319702</v>
+        <v>-3.133705377578735</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.882574796676636</v>
+        <v>-3.133704423904419</v>
       </c>
       <c r="Q3" t="n">
-        <v>-3.872534990310669</v>
+        <v>-3.133702993392944</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.861291170120239</v>
+        <v>-3.133702993392944</v>
       </c>
       <c r="S3" t="n">
-        <v>-3.848687410354614</v>
+        <v>-3.133702993392944</v>
       </c>
       <c r="T3" t="n">
-        <v>-3.797113103796408</v>
+        <v>-3.133702993392944</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5115817096296968</v>
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-3.133702993392944</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-5.885902881622314</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-5.869184970855713</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-3.28266566612888</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.773880733994195</v>
       </c>
     </row>
     <row r="4">
@@ -681,58 +802,91 @@
         <v>-3.660577247945794</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.915147066116333</v>
+        <v>-3.977428674697876</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.922759771347046</v>
+        <v>-3.977428674697876</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.92962384223938</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.906708478927612</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.935811758041382</v>
+        <v>-3.977426290512085</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.897355794906616</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.886996984481812</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.875530958175659</v>
+        <v>-3.977428197860718</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.862846612930298</v>
+        <v>-3.977426767349243</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.848828077316284</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.804781198501587</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.803264379501343</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.801591634750366</v>
+        <v>-3.97742772102356</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.799753904342651</v>
+        <v>-3.977426767349243</v>
       </c>
       <c r="R4" t="n">
-        <v>-3.79773211479187</v>
+        <v>-3.977426767349243</v>
       </c>
       <c r="S4" t="n">
-        <v>-3.795518159866333</v>
+        <v>-3.977426767349243</v>
       </c>
       <c r="T4" t="n">
-        <v>-3.849695763775433</v>
+        <v>-3.977426767349243</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07139843462234867</v>
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-3.977426767349243</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-4.037447929382324</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-4.034774303436279</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-3.970302895080771</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.06261697503231901</v>
       </c>
     </row>
     <row r="5">
@@ -746,58 +900,91 @@
         <v>-0.06163979365409215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1676051765680313</v>
+        <v>0.1359942704439163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1670486181974411</v>
+        <v>0.1359941512346268</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1665562838315964</v>
+        <v>0.1359945088624954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1682325452566147</v>
+        <v>0.1359947472810745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1661193817853928</v>
+        <v>0.1359945088624954</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1689433306455612</v>
+        <v>0.1359942704439163</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1697476655244827</v>
+        <v>0.1359941512346268</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1706605106592178</v>
+        <v>0.1359947472810745</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1716951280832291</v>
+        <v>0.1359949856996536</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1728725880384445</v>
+        <v>0.1359947472810745</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1832071989774704</v>
+        <v>0.1359947472810745</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1842245906591415</v>
+        <v>0.135994628071785</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1853517442941666</v>
+        <v>0.1359949856996536</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1866027265787125</v>
+        <v>0.1359948664903641</v>
       </c>
       <c r="R5" t="n">
-        <v>0.187992200255394</v>
+        <v>0.1359948664903641</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1895323246717453</v>
+        <v>0.1359948664903641</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1614560129630911</v>
+        <v>0.1359948664903641</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05813054023552236</v>
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1359948664903641</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.003962385468184948</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.001601946773007512</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1193067318786758</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.050047048429917</v>
       </c>
     </row>
     <row r="6">
@@ -811,58 +998,91 @@
         <v>-0.5440883652459572</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3635293245315552</v>
+        <v>-0.3140175938606262</v>
       </c>
       <c r="E6" t="n">
-        <v>0.361009806394577</v>
+        <v>-0.314018189907074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3587540090084076</v>
+        <v>-0.314018726348877</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3663475513458252</v>
+        <v>-0.3140180706977844</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3567353487014771</v>
+        <v>-0.3140175938606262</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3694992363452911</v>
+        <v>-0.3140184283256531</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3730304539203644</v>
+        <v>-0.3140185475349426</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3769847452640533</v>
+        <v>-0.3140189647674561</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3814221918582916</v>
+        <v>-0.3140185475349426</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3864047527313232</v>
+        <v>-0.3140192031860352</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4263350069522858</v>
+        <v>-0.3140192031860352</v>
       </c>
       <c r="O6" t="n">
-        <v>0.430095762014389</v>
+        <v>-0.314018726348877</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4342556893825531</v>
+        <v>-0.314018726348877</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.438854843378067</v>
+        <v>-0.3140192031860352</v>
       </c>
       <c r="R6" t="n">
-        <v>0.443939596414566</v>
+        <v>-0.3140192031860352</v>
       </c>
       <c r="S6" t="n">
-        <v>0.449554055929184</v>
+        <v>-0.3140192031860352</v>
       </c>
       <c r="T6" t="n">
-        <v>0.339568471113309</v>
+        <v>-0.3140192031860352</v>
       </c>
       <c r="U6" t="n">
-        <v>0.230239183120057</v>
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.3140192031860352</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.7424103021621704</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.7484523057937622</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.3530507833336471</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1190278328324086</v>
       </c>
     </row>
     <row r="7">
@@ -876,58 +1096,91 @@
         <v>3.378684156009972</v>
       </c>
       <c r="D7" t="n">
-        <v>1.923826456069946</v>
+        <v>1.7558673620224</v>
       </c>
       <c r="E7" t="n">
-        <v>1.924792647361755</v>
+        <v>1.755867838859558</v>
       </c>
       <c r="F7" t="n">
-        <v>1.925660252571106</v>
+        <v>1.755867838859558</v>
       </c>
       <c r="G7" t="n">
-        <v>1.922750473022461</v>
+        <v>1.755869150161743</v>
       </c>
       <c r="H7" t="n">
-        <v>1.926442980766296</v>
+        <v>1.755869388580322</v>
       </c>
       <c r="I7" t="n">
-        <v>1.921555399894714</v>
+        <v>1.75586986541748</v>
       </c>
       <c r="J7" t="n">
-        <v>1.920226335525513</v>
+        <v>1.75587010383606</v>
       </c>
       <c r="K7" t="n">
-        <v>1.918745875358582</v>
+        <v>1.755870342254639</v>
       </c>
       <c r="L7" t="n">
-        <v>1.917102217674255</v>
+        <v>1.755870342254639</v>
       </c>
       <c r="M7" t="n">
-        <v>1.91527271270752</v>
+        <v>1.755870342254639</v>
       </c>
       <c r="N7" t="n">
-        <v>1.826247096061707</v>
+        <v>1.755870819091797</v>
       </c>
       <c r="O7" t="n">
-        <v>1.814672708511353</v>
+        <v>1.755870819091797</v>
       </c>
       <c r="P7" t="n">
-        <v>1.801807165145874</v>
+        <v>1.755870580673218</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.787501811981201</v>
+        <v>1.755871772766113</v>
       </c>
       <c r="R7" t="n">
-        <v>1.771600127220154</v>
+        <v>1.755871772766113</v>
       </c>
       <c r="S7" t="n">
-        <v>1.753917813301086</v>
+        <v>1.755871772766113</v>
       </c>
       <c r="T7" t="n">
-        <v>1.961812131128441</v>
+        <v>1.755871772766113</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3707431080437308</v>
+        <v>1.755871772766113</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.755871772766113</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.792969346046448</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.791551351547241</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.816427532862674</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.3063218648142923</v>
       </c>
     </row>
     <row r="8">
@@ -941,58 +1194,91 @@
         <v>0.3065406805125779</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2073474079370499</v>
+        <v>-0.05547691509127617</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2080225497484207</v>
+        <v>-0.05547619983553886</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2086308747529984</v>
+        <v>-0.05547566339373589</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.206598773598671</v>
+        <v>-0.05547518655657768</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2091798335313797</v>
+        <v>-0.05547447130084038</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2057678252458572</v>
+        <v>-0.05547399446368217</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2048480063676834</v>
+        <v>-0.05547375604510307</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.203828290104866</v>
+        <v>-0.05547375604510307</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2027002722024918</v>
+        <v>-0.05547375604510307</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.2014497667551041</v>
+        <v>-0.05547447130084038</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2045781165361404</v>
+        <v>-0.05547298118472099</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.2053541094064713</v>
+        <v>-0.05547351762652397</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2062047272920609</v>
+        <v>-0.05547298118472099</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.2071314007043839</v>
+        <v>-0.05547250434756279</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2081372886896133</v>
+        <v>-0.05547250434756279</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2092278152704239</v>
+        <v>-0.05547250434756279</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.1760274339782963</v>
+        <v>-0.05547250434756279</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243748503715515</v>
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.05547250434756279</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.2610555291175842</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.2600877285003662</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.0571942956910676</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.08925666450387451</v>
       </c>
     </row>
     <row r="9">
@@ -1006,58 +1292,91 @@
         <v>0.9261931876026898</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7146961688995361</v>
+        <v>-0.4440627694129944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7160398364067078</v>
+        <v>-0.4440630078315735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7172359824180603</v>
+        <v>-0.4440630078315735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7131880521774292</v>
+        <v>-0.4440634846687317</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7183032035827637</v>
+        <v>-0.444063127040863</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7114916443824768</v>
+        <v>-0.4440627694129944</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7095814943313599</v>
+        <v>-0.4440625309944153</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7074283957481384</v>
+        <v>-0.4440632462501526</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7049948573112488</v>
+        <v>-0.4440625309944153</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7022430300712585</v>
+        <v>-0.4440634846687317</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7228842973709106</v>
+        <v>-0.4440636038780212</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7266498208045959</v>
+        <v>-0.4440637230873108</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7308458685874939</v>
+        <v>-0.4440636038780212</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7355192303657532</v>
+        <v>-0.4440627694129944</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7407267093658447</v>
+        <v>-0.4440627694129944</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7465286254882812</v>
+        <v>-0.4440627694129944</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7320323767596794</v>
+        <v>-0.4440627694129944</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0515866795750619</v>
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.4440627694129944</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3905939757823944</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3842446804046631</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3357336528255708</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3295204692932366</v>
       </c>
     </row>
     <row r="10">
@@ -1071,58 +1390,91 @@
         <v>-0.9249289219863195</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3761933445930481</v>
+        <v>-0.5077642202377319</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3791617155075073</v>
+        <v>-0.5077642202377319</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3818336725234985</v>
+        <v>-0.5077642202377319</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3728925585746765</v>
+        <v>-0.5077646970748901</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3842374682426453</v>
+        <v>-0.5077639818191528</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3692246079444885</v>
+        <v>-0.5077635049819946</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.3651493191719055</v>
+        <v>-0.5077639818191528</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.3606206178665161</v>
+        <v>-0.5077637434005737</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.3555880188941956</v>
+        <v>-0.5077635049819946</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.3499934673309326</v>
+        <v>-0.5077635049819946</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.3467476367950439</v>
+        <v>-0.5077639818191528</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3480762839317322</v>
+        <v>-0.5077639818191528</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.3495513200759888</v>
+        <v>-0.5077642202377319</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.3511837720870972</v>
+        <v>-0.5077646970748901</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.3529891967773438</v>
+        <v>-0.5077646970748901</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.3549870848655701</v>
+        <v>-0.5077646970748901</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.39549170630403</v>
+        <v>-0.5077646970748901</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1370220776187986</v>
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.5077646970748901</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.794316291809082</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.7907947301864624</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.5430052883046261</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1056673023247145</v>
       </c>
     </row>
     <row r="11">
@@ -1136,58 +1488,91 @@
         <v>0.01239026207722013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1565708965063095</v>
+        <v>0.1833881586790085</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1613203436136246</v>
+        <v>0.1833883970975876</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1655928641557693</v>
+        <v>0.1833876818418503</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1512929648160934</v>
+        <v>0.1833876818418503</v>
       </c>
       <c r="H11" t="n">
-        <v>0.169440433382988</v>
+        <v>0.1833871752023697</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1454251557588577</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1389067322015762</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="K11" t="n">
-        <v>0.131661668419838</v>
+        <v>0.1833864599466324</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1236086338758469</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1146590858697891</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1284141391515732</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1331148594617844</v>
+        <v>0.1833864599466324</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1383244246244431</v>
+        <v>0.1833864599466324</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1441028565168381</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1505068689584732</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1576044112443924</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1366433294491422</v>
+        <v>0.1833866983652115</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03544687993446714</v>
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.1833866983652115</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.09631554782390594</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0893985778093338</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1708134548007721</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.03907661638006397</v>
       </c>
     </row>
     <row r="12">
@@ -1201,58 +1586,91 @@
         <v>1.21134320988949</v>
       </c>
       <c r="D12" t="n">
-        <v>2.513350248336792</v>
+        <v>2.521425724029541</v>
       </c>
       <c r="E12" t="n">
-        <v>2.511744499206543</v>
+        <v>2.521426200866699</v>
       </c>
       <c r="F12" t="n">
-        <v>2.510300397872925</v>
+        <v>2.521426916122437</v>
       </c>
       <c r="G12" t="n">
-        <v>2.515134811401367</v>
+        <v>2.521426916122437</v>
       </c>
       <c r="H12" t="n">
-        <v>2.508999586105347</v>
+        <v>2.521427869796753</v>
       </c>
       <c r="I12" t="n">
-        <v>2.517117261886597</v>
+        <v>2.521428346633911</v>
       </c>
       <c r="J12" t="n">
-        <v>2.519322395324707</v>
+        <v>2.521427869796753</v>
       </c>
       <c r="K12" t="n">
-        <v>2.521772861480713</v>
+        <v>2.521427154541016</v>
       </c>
       <c r="L12" t="n">
-        <v>2.52449893951416</v>
+        <v>2.521428346633911</v>
       </c>
       <c r="M12" t="n">
-        <v>2.527532339096069</v>
+        <v>2.521428108215332</v>
       </c>
       <c r="N12" t="n">
-        <v>2.533147573471069</v>
+        <v>2.521427631378174</v>
       </c>
       <c r="O12" t="n">
-        <v>2.532941818237305</v>
+        <v>2.521428108215332</v>
       </c>
       <c r="P12" t="n">
-        <v>2.532713651657104</v>
+        <v>2.521427631378174</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.532460451126099</v>
+        <v>2.521427869796753</v>
       </c>
       <c r="R12" t="n">
-        <v>2.532180786132812</v>
+        <v>2.521427869796753</v>
       </c>
       <c r="S12" t="n">
-        <v>2.531870603561401</v>
+        <v>2.521427869796753</v>
       </c>
       <c r="T12" t="n">
-        <v>2.445672437311794</v>
+        <v>2.521427869796753</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3182030775821726</v>
+        <v>2.521427869796753</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.521427869796753</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.709266901016235</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.710408449172974</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.48809677933465</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.2550389986595787</v>
       </c>
     </row>
     <row r="13">
@@ -1266,58 +1684,91 @@
         <v>0.9113706555551547</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.540099024772644</v>
+        <v>-0.137930229306221</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.538912177085876</v>
+        <v>-0.1379305273294449</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.537842869758606</v>
+        <v>-0.137930229306221</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.541418671607971</v>
+        <v>-0.1379305273294449</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.536880612373352</v>
+        <v>-0.1379314810037613</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.542880654335022</v>
+        <v>-0.1379312425851822</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.544503331184387</v>
+        <v>-0.1379314810037613</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.546303868293762</v>
+        <v>-0.1379317194223404</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.548293948173523</v>
+        <v>-0.1379329711198807</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.550493597984314</v>
+        <v>-0.1379334479570389</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.516523480415344</v>
+        <v>-0.1379329711198807</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.511162400245667</v>
+        <v>-0.1379332095384598</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.505193829536438</v>
+        <v>-0.1379329711198807</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.49854838848114</v>
+        <v>-0.1379339247941971</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.491148114204407</v>
+        <v>-0.1379339247941971</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.482904314994812</v>
+        <v>-0.1379339247941971</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.383631683993654</v>
+        <v>-0.1379339247941971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5918072919062356</v>
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.1379339247941971</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.4041793048381805</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.3859822750091553</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.06238528108104972</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.2364554854908871</v>
       </c>
     </row>
     <row r="14">
@@ -1331,58 +1782,91 @@
         <v>0.07966792776917289</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2851297855377197</v>
+        <v>-0.1267682462930679</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2856907248497009</v>
+        <v>-0.1267692595720291</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2861959934234619</v>
+        <v>-0.1267680078744888</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2845065593719482</v>
+        <v>-0.126768484711647</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2866490483283997</v>
+        <v>-0.1267670542001724</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2838111519813538</v>
+        <v>-0.1267668157815933</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.2830361723899841</v>
+        <v>-0.1267672926187515</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2821740508079529</v>
+        <v>-0.1267675310373306</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.2812092900276184</v>
+        <v>-0.1267675310373306</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2801309823989868</v>
+        <v>-0.1267675310373306</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.3134961128234863</v>
+        <v>-0.1267677694559097</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.3184072971343994</v>
+        <v>-0.1267670542001724</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.3238683938980103</v>
+        <v>-0.1267675310373306</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.3299354910850525</v>
+        <v>-0.1267680078744888</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.3366830945014954</v>
+        <v>-0.1267680078744888</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.3441824316978455</v>
+        <v>-0.1267680078744888</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.277966979558132</v>
+        <v>-0.1267680078744888</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09481223844514187</v>
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.1267680078744888</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.2617594003677368</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.2589738368988037</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.1289379111731567</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.05381209259588528</v>
       </c>
     </row>
     <row r="15">
@@ -1396,58 +1880,91 @@
         <v>3.734019556308177</v>
       </c>
       <c r="D15" t="n">
-        <v>3.24721097946167</v>
+        <v>3.526522397994995</v>
       </c>
       <c r="E15" t="n">
-        <v>3.242164611816406</v>
+        <v>3.526522874832153</v>
       </c>
       <c r="F15" t="n">
-        <v>3.237626791000366</v>
+        <v>3.526522397994995</v>
       </c>
       <c r="G15" t="n">
-        <v>3.252821445465088</v>
+        <v>3.526521444320679</v>
       </c>
       <c r="H15" t="n">
-        <v>3.233544826507568</v>
+        <v>3.526521921157837</v>
       </c>
       <c r="I15" t="n">
-        <v>3.259061813354492</v>
+        <v>3.526520967483521</v>
       </c>
       <c r="J15" t="n">
-        <v>3.266002893447876</v>
+        <v>3.526521444320679</v>
       </c>
       <c r="K15" t="n">
-        <v>3.273725509643555</v>
+        <v>3.526521444320679</v>
       </c>
       <c r="L15" t="n">
-        <v>3.282317161560059</v>
+        <v>3.526521444320679</v>
       </c>
       <c r="M15" t="n">
-        <v>3.291876077651978</v>
+        <v>3.526521444320679</v>
       </c>
       <c r="N15" t="n">
-        <v>3.415854215621948</v>
+        <v>3.526520967483521</v>
       </c>
       <c r="O15" t="n">
-        <v>3.429686546325684</v>
+        <v>3.526521444320679</v>
       </c>
       <c r="P15" t="n">
-        <v>3.445053815841675</v>
+        <v>3.526520252227783</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.462125539779663</v>
+        <v>3.526520967483521</v>
       </c>
       <c r="R15" t="n">
-        <v>3.481086015701294</v>
+        <v>3.526520967483521</v>
       </c>
       <c r="S15" t="n">
-        <v>3.502147674560547</v>
+        <v>3.526520967483521</v>
       </c>
       <c r="T15" t="n">
-        <v>3.356254439649885</v>
+        <v>3.526520967483521</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1383750006641859</v>
+        <v>3.526520967483521</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3.526520967483521</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.825122356414795</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.823792934417725</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3.555213103644351</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.08553500327506197</v>
       </c>
     </row>
     <row r="16">
@@ -1461,58 +1978,91 @@
         <v>3.776745646201351</v>
       </c>
       <c r="D16" t="n">
-        <v>2.72357964515686</v>
+        <v>3.312291860580444</v>
       </c>
       <c r="E16" t="n">
-        <v>2.724502801895142</v>
+        <v>3.31229305267334</v>
       </c>
       <c r="F16" t="n">
-        <v>2.725330114364624</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="G16" t="n">
-        <v>2.722551584243774</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="H16" t="n">
-        <v>2.726074457168579</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="I16" t="n">
-        <v>2.721403837203979</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="J16" t="n">
-        <v>2.720125675201416</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="K16" t="n">
-        <v>2.718697786331177</v>
+        <v>3.31229305267334</v>
       </c>
       <c r="L16" t="n">
-        <v>2.717102766036987</v>
+        <v>3.312294960021973</v>
       </c>
       <c r="M16" t="n">
-        <v>2.715321063995361</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="N16" t="n">
-        <v>2.696852922439575</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="O16" t="n">
-        <v>2.694922924041748</v>
+        <v>3.312294960021973</v>
       </c>
       <c r="P16" t="n">
-        <v>2.692781209945679</v>
+        <v>3.312294006347656</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.690404653549194</v>
+        <v>3.312294960021973</v>
       </c>
       <c r="R16" t="n">
-        <v>2.687768459320068</v>
+        <v>3.312294960021973</v>
       </c>
       <c r="S16" t="n">
-        <v>2.684844255447388</v>
+        <v>3.312294960021973</v>
       </c>
       <c r="T16" t="n">
-        <v>2.772882929561347</v>
+        <v>3.312294960021973</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2591288481178328</v>
+        <v>3.312294960021973</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3.312294960021973</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3.859339952468872</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.865336894989014</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>3.368170783952686</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.164812916375323</v>
       </c>
     </row>
     <row r="17">
@@ -1526,58 +2076,91 @@
         <v>0.13284922819448</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9980558156967163</v>
+        <v>-0.9366486072540283</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9957238435745239</v>
+        <v>-0.9366490840911865</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9936238527297974</v>
+        <v>-0.9366488456726074</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.000643372535706</v>
+        <v>-0.9366490840911865</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9917305707931519</v>
+        <v>-0.9366501569747925</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.003513693809509</v>
+        <v>-0.9366490840911865</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.006697058677673</v>
+        <v>-0.9366496801376343</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.010228991508484</v>
+        <v>-0.9366488456726074</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.014143705368042</v>
+        <v>-0.9366496801376343</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.018483400344849</v>
+        <v>-0.9366496801376343</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.050236344337463</v>
+        <v>-0.9366496801376343</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.053237795829773</v>
+        <v>-0.9366488456726074</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.056587934494019</v>
+        <v>-0.9366501569747925</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.060327768325806</v>
+        <v>-0.9366503953933716</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.064506053924561</v>
+        <v>-0.9366503953933716</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.069175004959106</v>
+        <v>-0.9366503953933716</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.9561215281596882</v>
+        <v>-0.9366503953933716</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2820236864764291</v>
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.9366503953933716</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.4758914113044739</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.4984086751937866</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.8663463226453489</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.2285047643198538</v>
       </c>
     </row>
   </sheetData>
